--- a/biology/Zoologie/Gecko_diurne_orné_de_l'île_Maurice/Gecko_diurne_orné_de_l'île_Maurice.xlsx
+++ b/biology/Zoologie/Gecko_diurne_orné_de_l'île_Maurice/Gecko_diurne_orné_de_l'île_Maurice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phelsuma ornata
-Phelsuma ornata, le Gecko diurne orné de l'île Maurice[1] est une espèce de geckos de la famille des Gekkonidae[2]. Elle est aussi appelée Phelsume orné de l'île Maurice.
+Phelsuma ornata, le Gecko diurne orné de l'île Maurice est une espèce de geckos de la famille des Gekkonidae. Elle est aussi appelée Phelsume orné de l'île Maurice.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Maurice[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Maurice.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces geckos vivent dans les arbres et taillis et parfois sur les rochers lorsque la végétation est plus rare. Durant la journée la température atteint 28 °C et chute aux alentours de 20 °C la nuit. L'hygrométrie est proche de 60 % le jour et monte à plus de 80 % la nuit.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un gecko de couleur vert intense, voire bleutée, avec de nombreux points et lignes brisées rouges, jaunes ou orange. La couleur change sur la tête qui est marron-gris avec deux bandes claires longitudinales, et des taches d'un vert bleuté sur le devant. Les mâles mesurent jusqu'à 130 mm et les femelles jusqu'à 110 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un gecko de couleur vert intense, voire bleutée, avec de nombreux points et lignes brisées rouges, jaunes ou orange. La couleur change sur la tête qui est marron-gris avec deux bandes claires longitudinales, et des taches d'un vert bleuté sur le devant. Les mâles mesurent jusqu'à 130 mm et les femelles jusqu'à 110 mm.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est insectivore, elle consomme également des nectars de fruits, dont elle lèche la pulpe.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce Phelsuma ornata inexpectata, le lézard vert de Manapany, a été élevé au rang d'espèce.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œufs incubent durant une quarantaine de jours à 28 °C. Les petits font environ 35 mm à la naissance.
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est classée en annexe II de la convention CITES, et est de plus intégralement protégée en France comme toute la faune sauvage locale.
 </t>
@@ -711,7 +737,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,7 +755,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est représentée sur un timbre de Maurice de 1989 (10 c.).
 </t>
@@ -742,7 +770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -760,7 +788,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko se rencontre en terrariophilie. Cette espèce est considérée comme difficile à élever.
 </t>
@@ -773,7 +803,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gecko_diurne_orn%C3%A9_de_l%27%C3%AEle_Maurice</t>
+          <t>Gecko_diurne_orné_de_l'île_Maurice</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -791,7 +821,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Gray, 1825 : A synopsis of the genera of reptiles and Amphibia, with a description of some new species. Annals of Philosophy, London, ser. 2, vol. 10, p. 193–217 (texte intégral).</t>
         </is>
